--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H2">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N2">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P2">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q2">
-        <v>2.014523160348519</v>
+        <v>28.138643406396</v>
       </c>
       <c r="R2">
-        <v>2.014523160348519</v>
+        <v>253.247790657564</v>
       </c>
       <c r="S2">
-        <v>0.0005608212612578772</v>
+        <v>0.004231942293041292</v>
       </c>
       <c r="T2">
-        <v>0.0005608212612578772</v>
+        <v>0.004231942293041292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H3">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N3">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P3">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q3">
-        <v>4.137993887333316</v>
+        <v>15.018502803498</v>
       </c>
       <c r="R3">
-        <v>4.137993887333316</v>
+        <v>135.166525231482</v>
       </c>
       <c r="S3">
-        <v>0.001151972336009367</v>
+        <v>0.002258724284406534</v>
       </c>
       <c r="T3">
-        <v>0.001151972336009367</v>
+        <v>0.002258724284406533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H4">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.698647115963187</v>
+        <v>0.066056</v>
       </c>
       <c r="N4">
-        <v>0.698647115963187</v>
+        <v>0.198168</v>
       </c>
       <c r="O4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P4">
-        <v>0.2620506009073908</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q4">
-        <v>2.184798566704516</v>
+        <v>0.7079312016720001</v>
       </c>
       <c r="R4">
-        <v>2.184798566704516</v>
+        <v>6.371380815048001</v>
       </c>
       <c r="S4">
-        <v>0.0006082240759950611</v>
+        <v>0.0001064700934458802</v>
       </c>
       <c r="T4">
-        <v>0.0006082240759950611</v>
+        <v>0.0001064700934458801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1277.0726910683</v>
+        <v>10.717137</v>
       </c>
       <c r="H5">
-        <v>1277.0726910683</v>
+        <v>32.151411</v>
       </c>
       <c r="I5">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J5">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6441970520611791</v>
+        <v>0.704398</v>
       </c>
       <c r="N5">
-        <v>0.6441970520611791</v>
+        <v>2.113194</v>
       </c>
       <c r="O5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P5">
-        <v>0.2416273118978948</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q5">
-        <v>822.6864628540357</v>
+        <v>7.549129868526</v>
       </c>
       <c r="R5">
-        <v>822.6864628540357</v>
+        <v>67.94216881673401</v>
       </c>
       <c r="S5">
-        <v>0.2290269324269082</v>
+        <v>0.001135359708173233</v>
       </c>
       <c r="T5">
-        <v>0.2290269324269082</v>
+        <v>0.001135359708173233</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H6">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I6">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J6">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.32323296953614</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N6">
-        <v>1.32323296953614</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P6">
-        <v>0.4963220871947144</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q6">
-        <v>1689.864689315816</v>
+        <v>3383.107122730182</v>
       </c>
       <c r="R6">
-        <v>1689.864689315816</v>
+        <v>30447.96410457164</v>
       </c>
       <c r="S6">
-        <v>0.4704398862573956</v>
+        <v>0.5088061250073189</v>
       </c>
       <c r="T6">
-        <v>0.4704398862573956</v>
+        <v>0.5088061250073189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H7">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I7">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J7">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.698647115963187</v>
+        <v>1.401354</v>
       </c>
       <c r="N7">
-        <v>0.698647115963187</v>
+        <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P7">
-        <v>0.2620506009073908</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q7">
-        <v>892.2231524902138</v>
+        <v>1805.673538465902</v>
       </c>
       <c r="R7">
-        <v>892.2231524902138</v>
+        <v>16251.06184619312</v>
       </c>
       <c r="S7">
-        <v>0.2483851878955186</v>
+        <v>0.2715662622570653</v>
       </c>
       <c r="T7">
-        <v>0.2483851878955186</v>
+        <v>0.2715662622570652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.16229073701934</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H8">
-        <v>2.16229073701934</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J8">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.6441970520611791</v>
+        <v>0.066056</v>
       </c>
       <c r="N8">
-        <v>0.6441970520611791</v>
+        <v>0.198168</v>
       </c>
       <c r="O8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P8">
-        <v>0.2416273118978948</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q8">
-        <v>1.392941318487053</v>
+        <v>85.11451871326135</v>
       </c>
       <c r="R8">
-        <v>1.392941318487053</v>
+        <v>766.0306684193522</v>
       </c>
       <c r="S8">
-        <v>0.0003877796604517421</v>
+        <v>0.01280089186576176</v>
       </c>
       <c r="T8">
-        <v>0.0003877796604517421</v>
+        <v>0.01280089186576175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.16229073701934</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H9">
-        <v>2.16229073701934</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J9">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.32323296953614</v>
+        <v>0.704398</v>
       </c>
       <c r="N9">
-        <v>1.32323296953614</v>
+        <v>2.113194</v>
       </c>
       <c r="O9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P9">
-        <v>0.4963220871947144</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q9">
-        <v>2.86121439294659</v>
+        <v>907.6313544959407</v>
       </c>
       <c r="R9">
-        <v>2.86121439294659</v>
+        <v>8168.682190463467</v>
       </c>
       <c r="S9">
-        <v>0.0007965308595925456</v>
+        <v>0.1365042180643522</v>
       </c>
       <c r="T9">
-        <v>0.0007965308595925456</v>
+        <v>0.1365042180643522</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,433 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H10">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I10">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J10">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.698647115963187</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N10">
-        <v>0.698647115963187</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O10">
-        <v>0.2620506009073908</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P10">
-        <v>0.2620506009073908</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q10">
-        <v>1.510678187292476</v>
+        <v>2.561078300171555</v>
       </c>
       <c r="R10">
-        <v>1.510678187292476</v>
+        <v>23.049704701544</v>
       </c>
       <c r="S10">
-        <v>0.0004205563197424634</v>
+        <v>0.0003851761940955093</v>
       </c>
       <c r="T10">
-        <v>0.0004205563197424634</v>
+        <v>0.0003851761940955092</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H11">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I11">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J11">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6441970520611791</v>
+        <v>1.401354</v>
       </c>
       <c r="N11">
-        <v>0.6441970520611791</v>
+        <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.2416273118978948</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P11">
-        <v>0.2416273118978948</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q11">
-        <v>0.2670863739189021</v>
+        <v>1.366930206108</v>
       </c>
       <c r="R11">
-        <v>0.2670863739189021</v>
+        <v>12.302371854972</v>
       </c>
       <c r="S11">
-        <v>7.43539315080785E-05</v>
+        <v>0.0002055809751492569</v>
       </c>
       <c r="T11">
-        <v>7.43539315080785E-05</v>
+        <v>0.0002055809751492568</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H12">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I12">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J12">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.32323296953614</v>
+        <v>0.066056</v>
       </c>
       <c r="N12">
-        <v>1.32323296953614</v>
+        <v>0.198168</v>
       </c>
       <c r="O12">
-        <v>0.4963220871947144</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="P12">
-        <v>0.4963220871947144</v>
+        <v>0.01376917469164436</v>
       </c>
       <c r="Q12">
-        <v>0.5486170645341369</v>
+        <v>0.06443335637866666</v>
       </c>
       <c r="R12">
-        <v>0.5486170645341369</v>
+        <v>0.579900207408</v>
       </c>
       <c r="S12">
-        <v>0.0001527290031385888</v>
+        <v>9.690525659083509E-06</v>
       </c>
       <c r="T12">
-        <v>0.0001527290031385888</v>
+        <v>9.690525659083507E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H13">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I13">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J13">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.698647115963187</v>
+        <v>0.704398</v>
       </c>
       <c r="N13">
-        <v>0.698647115963187</v>
+        <v>2.113194</v>
       </c>
       <c r="O13">
-        <v>0.2620506009073908</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="P13">
-        <v>0.2620506009073908</v>
+        <v>0.1468296462765669</v>
       </c>
       <c r="Q13">
-        <v>0.2896615628004847</v>
+        <v>0.6870946979293333</v>
       </c>
       <c r="R13">
-        <v>0.2896615628004847</v>
+        <v>6.183852281364</v>
       </c>
       <c r="S13">
-        <v>8.063861770623253E-05</v>
+        <v>0.0001033363644968982</v>
       </c>
       <c r="T13">
-        <v>8.063861770623253E-05</v>
+        <v>0.0001033363644968981</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H14">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I14">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J14">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6441970520611791</v>
+        <v>2.625574666666667</v>
       </c>
       <c r="N14">
-        <v>0.6441970520611791</v>
+        <v>7.876723999999999</v>
       </c>
       <c r="O14">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="P14">
-        <v>0.2416273118978948</v>
+        <v>0.5472931490143097</v>
       </c>
       <c r="Q14">
-        <v>41.5872072634568</v>
+        <v>5.898883854749333</v>
       </c>
       <c r="R14">
-        <v>41.5872072634568</v>
+        <v>53.08995469274399</v>
       </c>
       <c r="S14">
-        <v>0.01157742461776892</v>
+        <v>0.0008871691398234862</v>
       </c>
       <c r="T14">
-        <v>0.01157742461776892</v>
+        <v>0.0008871691398234862</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H15">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I15">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J15">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.32323296953614</v>
+        <v>1.401354</v>
       </c>
       <c r="N15">
-        <v>1.32323296953614</v>
+        <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="P15">
-        <v>0.4963220871947144</v>
+        <v>0.292108030017479</v>
       </c>
       <c r="Q15">
-        <v>85.42349516481913</v>
+        <v>3.148424834508</v>
       </c>
       <c r="R15">
-        <v>85.42349516481913</v>
+        <v>28.335823510572</v>
       </c>
       <c r="S15">
-        <v>0.02378096873857827</v>
+        <v>0.0004735108235739383</v>
       </c>
       <c r="T15">
-        <v>0.02378096873857827</v>
+        <v>0.0004735108235739382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246702</v>
+      </c>
+      <c r="H16">
+        <v>6.740106</v>
+      </c>
+      <c r="I16">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="J16">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.066056</v>
+      </c>
+      <c r="N16">
+        <v>0.198168</v>
+      </c>
+      <c r="O16">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P16">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q16">
+        <v>0.148408147312</v>
+      </c>
+      <c r="R16">
+        <v>1.335673325808</v>
+      </c>
+      <c r="S16">
+        <v>2.232000690903231E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.232000690903231E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246702</v>
+      </c>
+      <c r="H17">
+        <v>6.740106</v>
+      </c>
+      <c r="I17">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="J17">
+        <v>0.001621012690221507</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.704398</v>
+      </c>
+      <c r="N17">
+        <v>2.113194</v>
+      </c>
+      <c r="O17">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P17">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q17">
+        <v>1.582572395396</v>
+      </c>
+      <c r="R17">
+        <v>14.243151558564</v>
+      </c>
+      <c r="S17">
+        <v>0.00023801271991505</v>
+      </c>
+      <c r="T17">
+        <v>0.00023801271991505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.335824</v>
+      </c>
+      <c r="I18">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J18">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P18">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q18">
+        <v>1.169101884508444</v>
+      </c>
+      <c r="R18">
+        <v>10.521916960576</v>
+      </c>
+      <c r="S18">
+        <v>0.000175828366651143</v>
+      </c>
+      <c r="T18">
+        <v>0.000175828366651143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.335824</v>
+      </c>
+      <c r="I19">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J19">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.401354</v>
+      </c>
+      <c r="N19">
+        <v>4.204062</v>
+      </c>
+      <c r="O19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P19">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q19">
+        <v>0.6239874352320002</v>
+      </c>
+      <c r="R19">
+        <v>5.615886917088001</v>
+      </c>
+      <c r="S19">
+        <v>9.384527815880532E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.384527815880531E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.335824</v>
+      </c>
+      <c r="I20">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J20">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.066056</v>
+      </c>
+      <c r="N20">
+        <v>0.198168</v>
+      </c>
+      <c r="O20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P20">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q20">
+        <v>0.02941306338133334</v>
+      </c>
+      <c r="R20">
+        <v>0.2647175704320001</v>
+      </c>
+      <c r="S20">
+        <v>4.423610089997276E-06</v>
+      </c>
+      <c r="T20">
+        <v>4.423610089997276E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="H16">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="I16">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="J16">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="N16">
-        <v>0.698647115963187</v>
-      </c>
-      <c r="O16">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="P16">
-        <v>0.2620506009073908</v>
-      </c>
-      <c r="Q16">
-        <v>45.10232128913572</v>
-      </c>
-      <c r="R16">
-        <v>45.10232128913572</v>
-      </c>
-      <c r="S16">
-        <v>0.01255599399842844</v>
-      </c>
-      <c r="T16">
-        <v>0.01255599399842844</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.335824</v>
+      </c>
+      <c r="I21">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J21">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.704398</v>
+      </c>
+      <c r="N21">
+        <v>2.113194</v>
+      </c>
+      <c r="O21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P21">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q21">
+        <v>0.3136505846506667</v>
+      </c>
+      <c r="R21">
+        <v>2.822855261856</v>
+      </c>
+      <c r="S21">
+        <v>4.717182542348766E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.717182542348766E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H22">
+        <v>249.24451</v>
+      </c>
+      <c r="I22">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J22">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.625574666666667</v>
+      </c>
+      <c r="N22">
+        <v>7.876723999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="P22">
+        <v>0.5472931490143097</v>
+      </c>
+      <c r="Q22">
+        <v>218.1366904205822</v>
+      </c>
+      <c r="R22">
+        <v>1963.23021378524</v>
+      </c>
+      <c r="S22">
+        <v>0.03280690801337936</v>
+      </c>
+      <c r="T22">
+        <v>0.03280690801337936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H23">
+        <v>249.24451</v>
+      </c>
+      <c r="I23">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J23">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.401354</v>
+      </c>
+      <c r="N23">
+        <v>4.204062</v>
+      </c>
+      <c r="O23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="P23">
+        <v>0.292108030017479</v>
+      </c>
+      <c r="Q23">
+        <v>116.42659702218</v>
+      </c>
+      <c r="R23">
+        <v>1047.83937319962</v>
+      </c>
+      <c r="S23">
+        <v>0.01751010639912528</v>
+      </c>
+      <c r="T23">
+        <v>0.01751010639912528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H24">
+        <v>249.24451</v>
+      </c>
+      <c r="I24">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J24">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.066056</v>
+      </c>
+      <c r="N24">
+        <v>0.198168</v>
+      </c>
+      <c r="O24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="P24">
+        <v>0.01376917469164436</v>
+      </c>
+      <c r="Q24">
+        <v>5.488031784186667</v>
+      </c>
+      <c r="R24">
+        <v>49.39228605768</v>
+      </c>
+      <c r="S24">
+        <v>0.0008253785897786137</v>
+      </c>
+      <c r="T24">
+        <v>0.0008253785897786136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H25">
+        <v>249.24451</v>
+      </c>
+      <c r="I25">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J25">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.704398</v>
+      </c>
+      <c r="N25">
+        <v>2.113194</v>
+      </c>
+      <c r="O25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="P25">
+        <v>0.1468296462765669</v>
+      </c>
+      <c r="Q25">
+        <v>58.52244478499333</v>
+      </c>
+      <c r="R25">
+        <v>526.70200306494</v>
+      </c>
+      <c r="S25">
+        <v>0.008801547594206066</v>
+      </c>
+      <c r="T25">
+        <v>0.008801547594206066</v>
       </c>
     </row>
   </sheetData>
